--- a/Semestre 1/Matemáticas Financieras/Matemáticas Financieras.xlsx
+++ b/Semestre 1/Matemáticas Financieras/Matemáticas Financieras.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGOJ\OneDrive\Desktop\NICO\MAF\Semestre 1\Matemáticas Financieras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6E56DF-FC04-4BC7-84EA-0CCD3F71E64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C32A0C1-C2E3-487F-8188-16A136692EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4032" yWindow="3660" windowWidth="17280" windowHeight="8928" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clase 18-11-2022" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <definedName name="Plazo">'Clase 02-12-2022'!$C$4</definedName>
     <definedName name="Plazo1">'Clase 02-12-2022'!$U$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -902,6 +902,24 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <border>
         <left style="thin">
@@ -956,6 +974,10 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="174" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
       <border>
         <left style="thin">
           <color auto="1"/>
@@ -974,7 +996,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
       <border>
         <left style="thin">
           <color auto="1"/>
@@ -1012,27 +1033,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="174" formatCode=";;;"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6166,8 +6166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFBC736-4416-4A9D-A190-EF65A620A280}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6445,17 +6445,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470F783D-64C3-454E-9771-0E0480BAE320}">
   <dimension ref="B1:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -6728,13 +6728,13 @@
         <v>95</v>
       </c>
       <c r="C21" s="3">
-        <v>0.12696849935016022</v>
+        <v>0.12696849935016</v>
       </c>
       <c r="E21" t="s">
         <v>63</v>
       </c>
       <c r="F21" s="4">
-        <v>0.3</v>
+        <v>0.1348</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
@@ -6743,14 +6743,14 @@
       </c>
       <c r="C22" s="3">
         <f>C21/2</f>
-        <v>6.3484249675080109E-2</v>
+        <v>6.3484249675079998E-2</v>
       </c>
       <c r="E22" t="s">
         <v>64</v>
       </c>
       <c r="F22" s="3">
         <f>NOMINAL(F21,4)/4</f>
-        <v>6.7789972372440888E-2</v>
+        <v>3.211913985104542E-2</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
@@ -6759,14 +6759,14 @@
       </c>
       <c r="C23" s="3">
         <f>C22/(1-C22)</f>
-        <v>6.7787701010959545E-2</v>
+        <v>6.778770101095942E-2</v>
       </c>
       <c r="E23" t="s">
         <v>89</v>
       </c>
       <c r="F23" s="2">
         <f>F22/(1+F22)</f>
-        <v>6.3486241795119622E-2</v>
+        <v>3.1119604908868202E-2</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
@@ -6775,14 +6775,14 @@
       </c>
       <c r="C24" s="17">
         <f>EFFECT(C23*4,4)</f>
-        <v>0.29998893879665278</v>
+        <v>0.29998893879665167</v>
       </c>
       <c r="E24" t="s">
         <v>95</v>
       </c>
       <c r="F24" s="17">
-        <f>F23*2</f>
-        <v>0.12697248359023924</v>
+        <f>F23*4</f>
+        <v>0.12447841963547281</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
@@ -6924,7 +6924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4497E775-9F4A-471C-83B7-F7B2D7C7D436}">
   <dimension ref="B1:X671"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="O1" workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
@@ -23790,14 +23790,14 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="8" priority="18">
-      <formula>B$9&gt;$C$4</formula>
+  <conditionalFormatting sqref="B8:F671">
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>$B8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:F671">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>$B8&lt;&gt;""</formula>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="7" priority="18">
+      <formula>B$9&gt;$C$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
@@ -23805,34 +23805,32 @@
       <formula>$B8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M8:R68">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$M7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N69:R1048576">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$M$18&gt;$N$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8:R68">
-    <cfRule type="expression" dxfId="4" priority="5">
+  <conditionalFormatting sqref="T8">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$M7&lt;&gt;""</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T8">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$B8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T8">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$M7&lt;&gt;""</formula>
+  <conditionalFormatting sqref="T8:X68">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$T7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9:X446">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$B9&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T8:X68">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$T7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -23859,7 +23857,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
@@ -25540,7 +25538,7 @@
     <col min="9" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
